--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>747582.9636083918</v>
+        <v>744984.4680069784</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9730238.09370474</v>
+        <v>9730238.093704764</v>
       </c>
     </row>
     <row r="8">
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="F8" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1151,37 +1151,37 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>6.602605461619501</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,65 +1209,65 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="S9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E9" t="n">
+      <c r="T9" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="U9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>15.30273751513505</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="D10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>358.9627716376686</v>
+        <v>358.962771637666</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>305.3133978736591</v>
       </c>
       <c r="D11" t="n">
-        <v>20.72766622386392</v>
+        <v>330.9119715948684</v>
       </c>
       <c r="E11" t="n">
-        <v>358.1593000464498</v>
+        <v>358.1593000464472</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>387.1506556276415</v>
+        <v>387.1506556276389</v>
       </c>
       <c r="H11" t="n">
-        <v>270.8366943615085</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>17.80585974711132</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>85.41669176236384</v>
+        <v>85.41669176236121</v>
       </c>
       <c r="T11" t="n">
-        <v>180.1469001138082</v>
+        <v>180.1469001138055</v>
       </c>
       <c r="U11" t="n">
-        <v>227.22410193309</v>
+        <v>227.2241019330874</v>
       </c>
       <c r="V11" t="n">
-        <v>303.9811884443229</v>
+        <v>303.9811884443203</v>
       </c>
       <c r="W11" t="n">
-        <v>325.469898691601</v>
+        <v>325.4698986915984</v>
       </c>
       <c r="X11" t="n">
-        <v>345.9600306526571</v>
+        <v>345.9600306526544</v>
       </c>
       <c r="Y11" t="n">
-        <v>362.4668686302416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.0609101561253</v>
+        <v>156.0609101561227</v>
       </c>
       <c r="C13" t="n">
-        <v>143.4757510728159</v>
+        <v>143.4757510728132</v>
       </c>
       <c r="D13" t="n">
-        <v>55.1153234199075</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>121.6499779971193</v>
+        <v>30.78985140240596</v>
       </c>
       <c r="G13" t="n">
-        <v>142.2547382332162</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>120.9839448885088</v>
+        <v>120.9839448885062</v>
       </c>
       <c r="I13" t="n">
-        <v>72.58135038402611</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>65.16108264423536</v>
+        <v>65.16108264423272</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>165.9979553056273</v>
       </c>
       <c r="T13" t="n">
-        <v>195.7778792503572</v>
+        <v>195.7778792503546</v>
       </c>
       <c r="U13" t="n">
-        <v>262.4407681798009</v>
+        <v>262.4407681797983</v>
       </c>
       <c r="V13" t="n">
-        <v>228.366573298016</v>
+        <v>228.3665732980134</v>
       </c>
       <c r="W13" t="n">
-        <v>262.751928310779</v>
+        <v>262.7519283107764</v>
       </c>
       <c r="X13" t="n">
-        <v>201.9385853632252</v>
+        <v>201.9385853632226</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>194.8135833262802</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>310.708242408055</v>
+        <v>358.9627716376659</v>
       </c>
       <c r="C14" t="n">
-        <v>341.5018217451956</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>330.911971594871</v>
+        <v>330.9119715948683</v>
       </c>
       <c r="E14" t="n">
-        <v>358.1593000464498</v>
+        <v>358.1593000464471</v>
       </c>
       <c r="F14" t="n">
-        <v>383.1049757158995</v>
+        <v>383.1049757158968</v>
       </c>
       <c r="G14" t="n">
-        <v>387.1506556276415</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>270.8366943615085</v>
+        <v>270.8366943615058</v>
       </c>
       <c r="I14" t="n">
-        <v>17.80585974711398</v>
+        <v>10.2670405684868</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>85.41669176236384</v>
+        <v>85.4166917623612</v>
       </c>
       <c r="T14" t="n">
-        <v>180.1469001138082</v>
+        <v>180.1469001138055</v>
       </c>
       <c r="U14" t="n">
-        <v>227.22410193309</v>
+        <v>227.2241019330873</v>
       </c>
       <c r="V14" t="n">
-        <v>303.9811884443229</v>
+        <v>303.9811884443203</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>325.4698986915984</v>
       </c>
       <c r="X14" t="n">
-        <v>345.9600306526571</v>
+        <v>345.9600306526544</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>362.4668686302389</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247674</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.0609101561253</v>
+        <v>156.0609101561226</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>47.74225175057277</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>124.8444029923977</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>122.6628926207545</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>101.6842520911455</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>120.9839448885088</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.58135038402611</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>65.16108264423536</v>
+        <v>65.16108264423271</v>
       </c>
       <c r="S16" t="n">
-        <v>165.9979553056299</v>
+        <v>165.9979553056272</v>
       </c>
       <c r="T16" t="n">
-        <v>195.7778792503572</v>
+        <v>195.7778792503545</v>
       </c>
       <c r="U16" t="n">
-        <v>262.4407681798009</v>
+        <v>262.4407681797982</v>
       </c>
       <c r="V16" t="n">
-        <v>228.366573298016</v>
+        <v>228.3665732980133</v>
       </c>
       <c r="W16" t="n">
-        <v>262.751928310779</v>
+        <v>262.7519283107763</v>
       </c>
       <c r="X16" t="n">
-        <v>201.9385853632252</v>
+        <v>201.9385853632225</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.8135833262828</v>
+        <v>194.8135833262801</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348608</v>
+        <v>306.1767895742954</v>
       </c>
       <c r="H17" t="n">
         <v>247.6326277687279</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T17" t="n">
         <v>156.9428335210276</v>
@@ -1904,10 +1904,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>216.4452325954966</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
         <v>339.262802037461</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,22 +2002,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D19" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I19" t="n">
         <v>49.37728379124552</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2093,10 +2093,10 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>218.0507122981344</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>120.3367837732057</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
         <v>280.7771218515423</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247665</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247659</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>341.1569118905546</v>
+        <v>341.1569118905545</v>
       </c>
       <c r="C26" t="n">
         <v>323.6959619980815</v>
@@ -2561,7 +2561,7 @@
         <v>313.1061118477569</v>
       </c>
       <c r="E26" t="n">
-        <v>340.3534402993358</v>
+        <v>340.3534402993357</v>
       </c>
       <c r="F26" t="n">
         <v>365.2991159687854</v>
@@ -2570,7 +2570,7 @@
         <v>369.3447958805274</v>
       </c>
       <c r="H26" t="n">
-        <v>253.0308346143945</v>
+        <v>253.0308346143944</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.61083201524984</v>
+        <v>67.61083201524981</v>
       </c>
       <c r="T26" t="n">
-        <v>162.3410403666942</v>
+        <v>162.3410403666941</v>
       </c>
       <c r="U26" t="n">
-        <v>209.418242185976</v>
+        <v>209.4182421859759</v>
       </c>
       <c r="V26" t="n">
         <v>286.1753286972089</v>
       </c>
       <c r="W26" t="n">
-        <v>307.664038944487</v>
+        <v>307.6640389444869</v>
       </c>
       <c r="X26" t="n">
         <v>328.154170905543</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247671</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>107.0385432452863</v>
       </c>
       <c r="E28" t="n">
-        <v>104.8570328736432</v>
+        <v>104.8570328736431</v>
       </c>
       <c r="F28" t="n">
         <v>103.8441182500052</v>
@@ -2728,7 +2728,7 @@
         <v>124.4488784861022</v>
       </c>
       <c r="H28" t="n">
-        <v>103.1780851413948</v>
+        <v>29.25600601213952</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.35522289712134</v>
+        <v>47.35522289712131</v>
       </c>
       <c r="S28" t="n">
-        <v>74.27001642926055</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T28" t="n">
         <v>177.9720195032432</v>
       </c>
       <c r="U28" t="n">
-        <v>244.6349084326869</v>
+        <v>244.6349084326868</v>
       </c>
       <c r="V28" t="n">
         <v>210.560713550902</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247671</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>124.4488784861022</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1780851413948</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>54.7754906369121</v>
+        <v>29.25600601213895</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>184.1327256161111</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.31015381300151</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="32">
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,13 +3089,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>318.4538641894158</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>355.4508341280571</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3266,7 +3266,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
         <v>307.7079050020903</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3755,7 +3755,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958336</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124562</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47.59615086525642</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="C8" t="n">
-        <v>47.59615086525642</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="D8" t="n">
-        <v>47.59615086525642</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="E8" t="n">
-        <v>47.59615086525642</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F8" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G8" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H8" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I8" t="n">
         <v>1.224219001210804</v>
@@ -4805,19 +4805,19 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L8" t="n">
-        <v>31.52363928117821</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M8" t="n">
-        <v>46.6733494211619</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="N8" t="n">
-        <v>61.2109500605402</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O8" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
@@ -4826,28 +4826,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R8" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S8" t="n">
-        <v>47.59615086525642</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T8" t="n">
-        <v>47.59615086525642</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U8" t="n">
-        <v>47.59615086525642</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V8" t="n">
-        <v>47.59615086525642</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W8" t="n">
-        <v>47.59615086525642</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="X8" t="n">
-        <v>47.59615086525642</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="Y8" t="n">
-        <v>47.59615086525642</v>
+        <v>39.08434099311135</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C9" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J9" t="n">
         <v>1.224219001210804</v>
@@ -4890,13 +4890,13 @@
         <v>31.52363928117821</v>
       </c>
       <c r="M9" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="N9" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O9" t="n">
-        <v>61.2109500605402</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="P9" t="n">
         <v>61.2109500605402</v>
@@ -4905,28 +4905,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S9" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T9" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="U9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="V9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="W9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X9" t="n">
-        <v>48.35028351804213</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y9" t="n">
-        <v>48.35028351804213</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.00470940373054</v>
+        <v>12.09008816103347</v>
       </c>
       <c r="C10" t="n">
-        <v>27.54739878238201</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D10" t="n">
-        <v>12.09008816103347</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E10" t="n">
-        <v>12.09008816103347</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F10" t="n">
-        <v>12.09008816103347</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G10" t="n">
-        <v>12.09008816103347</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H10" t="n">
-        <v>12.09008816103347</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I10" t="n">
-        <v>12.09008816103347</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J10" t="n">
         <v>1.224219001210804</v>
@@ -4972,7 +4972,7 @@
         <v>31.52363928117821</v>
       </c>
       <c r="N10" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O10" t="n">
         <v>61.2109500605402</v>
@@ -4981,31 +4981,31 @@
         <v>58.46202002507908</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="R10" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="S10" t="n">
         <v>43.00470940373054</v>
       </c>
       <c r="T10" t="n">
-        <v>43.00470940373054</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="U10" t="n">
-        <v>43.00470940373054</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="V10" t="n">
-        <v>43.00470940373054</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="W10" t="n">
-        <v>43.00470940373054</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="X10" t="n">
-        <v>43.00470940373054</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.00470940373054</v>
+        <v>12.09008816103347</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1113.859910633662</v>
+        <v>1479.988060765239</v>
       </c>
       <c r="C11" t="n">
-        <v>1113.859910633662</v>
+        <v>1171.590689175684</v>
       </c>
       <c r="D11" t="n">
-        <v>1092.9228740439</v>
+        <v>837.3361724131909</v>
       </c>
       <c r="E11" t="n">
-        <v>731.1458032899106</v>
+        <v>475.5591016592039</v>
       </c>
       <c r="F11" t="n">
-        <v>731.1458032899106</v>
+        <v>475.5591016592039</v>
       </c>
       <c r="G11" t="n">
-        <v>340.0845349791616</v>
+        <v>84.49783334845749</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>84.49783334845749</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3239.32633498052</v>
+        <v>3239.326334980524</v>
       </c>
       <c r="T11" t="n">
-        <v>3057.359769208997</v>
+        <v>3057.359769209003</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.840474327088</v>
+        <v>2827.840474327097</v>
       </c>
       <c r="V11" t="n">
-        <v>2520.788768827771</v>
+        <v>2520.788768827783</v>
       </c>
       <c r="W11" t="n">
-        <v>2192.031295401912</v>
+        <v>2192.031295401926</v>
       </c>
       <c r="X11" t="n">
-        <v>1842.576718985087</v>
+        <v>1842.576718985104</v>
       </c>
       <c r="Y11" t="n">
-        <v>1476.448568853529</v>
+        <v>1842.576718985104</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>729.2000820842986</v>
+        <v>364.7439824561479</v>
       </c>
       <c r="C13" t="n">
-        <v>584.2750810006462</v>
+        <v>219.8189813724982</v>
       </c>
       <c r="D13" t="n">
-        <v>528.6030371421535</v>
+        <v>219.8189813724982</v>
       </c>
       <c r="E13" t="n">
-        <v>528.6030371421535</v>
+        <v>219.8189813724982</v>
       </c>
       <c r="F13" t="n">
-        <v>405.7242714884977</v>
+        <v>188.7181213700685</v>
       </c>
       <c r="G13" t="n">
-        <v>262.0326167074712</v>
+        <v>188.7181213700685</v>
       </c>
       <c r="H13" t="n">
-        <v>139.8266117695835</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>135.1681082046728</v>
+        <v>135.1681082046753</v>
       </c>
       <c r="K13" t="n">
-        <v>362.688650479103</v>
+        <v>362.6886504791082</v>
       </c>
       <c r="L13" t="n">
-        <v>702.7818082531531</v>
+        <v>702.781808253161</v>
       </c>
       <c r="M13" t="n">
-        <v>1070.472213178256</v>
+        <v>1070.472213178266</v>
       </c>
       <c r="N13" t="n">
-        <v>1435.413949209674</v>
+        <v>1435.413949209687</v>
       </c>
       <c r="O13" t="n">
-        <v>1758.276907455642</v>
+        <v>1758.276907455657</v>
       </c>
       <c r="P13" t="n">
-        <v>2014.417767214855</v>
+        <v>2014.417767214873</v>
       </c>
       <c r="Q13" t="n">
-        <v>2115.561422692924</v>
+        <v>2115.561422692944</v>
       </c>
       <c r="R13" t="n">
-        <v>2049.742147294706</v>
+        <v>2049.742147294729</v>
       </c>
       <c r="S13" t="n">
-        <v>2049.742147294706</v>
+        <v>1882.067444965813</v>
       </c>
       <c r="T13" t="n">
-        <v>1851.986713708487</v>
+        <v>1684.312011379596</v>
       </c>
       <c r="U13" t="n">
-        <v>1586.895028678385</v>
+        <v>1419.220326349497</v>
       </c>
       <c r="V13" t="n">
-        <v>1356.221722316753</v>
+        <v>1188.547019987867</v>
       </c>
       <c r="W13" t="n">
-        <v>1090.815734124047</v>
+        <v>923.1410317951636</v>
       </c>
       <c r="X13" t="n">
-        <v>886.8373650702838</v>
+        <v>719.1626627414034</v>
       </c>
       <c r="Y13" t="n">
-        <v>886.8373650702838</v>
+        <v>522.3812654421305</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2183.611649087782</v>
+        <v>1439.984076813564</v>
       </c>
       <c r="C14" t="n">
-        <v>1838.660313991625</v>
+        <v>1439.984076813564</v>
       </c>
       <c r="D14" t="n">
-        <v>1504.405797229129</v>
+        <v>1105.729560051071</v>
       </c>
       <c r="E14" t="n">
-        <v>1142.628726475139</v>
+        <v>743.9524892970835</v>
       </c>
       <c r="F14" t="n">
-        <v>755.654003529786</v>
+        <v>356.9777663517332</v>
       </c>
       <c r="G14" t="n">
-        <v>364.5927352190369</v>
+        <v>356.9777663517332</v>
       </c>
       <c r="H14" t="n">
-        <v>91.0203166720586</v>
+        <v>83.40534780475764</v>
       </c>
       <c r="I14" t="n">
-        <v>73.03459975578184</v>
+        <v>73.03459975578102</v>
       </c>
       <c r="J14" t="n">
-        <v>261.9137307148072</v>
+        <v>261.9137307148064</v>
       </c>
       <c r="K14" t="n">
-        <v>595.7331044046537</v>
+        <v>595.733104404653</v>
       </c>
       <c r="L14" t="n">
         <v>1046.767317653062</v>
       </c>
       <c r="M14" t="n">
-        <v>1580.299222324987</v>
+        <v>1689.709064427963</v>
       </c>
       <c r="N14" t="n">
-        <v>2127.078039383769</v>
+        <v>2236.487881486745</v>
       </c>
       <c r="O14" t="n">
-        <v>2630.050510263105</v>
+        <v>2739.460352366082</v>
       </c>
       <c r="P14" t="n">
-        <v>3343.405597710051</v>
+        <v>3134.23471872326</v>
       </c>
       <c r="Q14" t="n">
-        <v>3592.712921232289</v>
+        <v>3592.712921232248</v>
       </c>
       <c r="R14" t="n">
-        <v>3651.729987789092</v>
+        <v>3651.729987789051</v>
       </c>
       <c r="S14" t="n">
-        <v>3565.450501160441</v>
+        <v>3565.450501160403</v>
       </c>
       <c r="T14" t="n">
-        <v>3383.483935388918</v>
+        <v>3383.483935388882</v>
       </c>
       <c r="U14" t="n">
-        <v>3153.964640507009</v>
+        <v>3153.964640506976</v>
       </c>
       <c r="V14" t="n">
-        <v>2846.912935007693</v>
+        <v>2846.912935007663</v>
       </c>
       <c r="W14" t="n">
-        <v>2846.912935007693</v>
+        <v>2518.155461581806</v>
       </c>
       <c r="X14" t="n">
-        <v>2497.458358590868</v>
+        <v>2168.700885164983</v>
       </c>
       <c r="Y14" t="n">
-        <v>2497.458358590868</v>
+        <v>1802.572735033428</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>948.0663378047063</v>
+        <v>948.0663378047057</v>
       </c>
       <c r="C15" t="n">
-        <v>773.6133085235793</v>
+        <v>773.6133085235787</v>
       </c>
       <c r="D15" t="n">
-        <v>624.6788988623281</v>
+        <v>624.6788988623275</v>
       </c>
       <c r="E15" t="n">
-        <v>465.4414438568726</v>
+        <v>465.441443856872</v>
       </c>
       <c r="F15" t="n">
-        <v>318.9068858837576</v>
+        <v>318.906885883757</v>
       </c>
       <c r="G15" t="n">
-        <v>182.5437857163757</v>
+        <v>182.5437857163755</v>
       </c>
       <c r="H15" t="n">
-        <v>92.04189135424319</v>
+        <v>92.04189135424303</v>
       </c>
       <c r="I15" t="n">
-        <v>73.03459975578184</v>
+        <v>73.03459975578102</v>
       </c>
       <c r="J15" t="n">
-        <v>166.7118692463991</v>
+        <v>166.7118692463987</v>
       </c>
       <c r="K15" t="n">
-        <v>404.9760682267462</v>
+        <v>404.9760682267458</v>
       </c>
       <c r="L15" t="n">
-        <v>771.6742285394114</v>
+        <v>771.6742285394112</v>
       </c>
       <c r="M15" t="n">
         <v>1218.950553761727</v>
       </c>
       <c r="N15" t="n">
-        <v>1692.473597316182</v>
+        <v>1692.473597316181</v>
       </c>
       <c r="O15" t="n">
         <v>2103.434876734236</v>
@@ -5376,7 +5376,7 @@
         <v>2413.934468210339</v>
       </c>
       <c r="Q15" t="n">
-        <v>2571.576025856939</v>
+        <v>2571.576025856938</v>
       </c>
       <c r="R15" t="n">
         <v>2571.431672449454</v>
@@ -5385,16 +5385,16 @@
         <v>2441.993785942934</v>
       </c>
       <c r="T15" t="n">
-        <v>2249.35078562079</v>
+        <v>2249.350785620789</v>
       </c>
       <c r="U15" t="n">
         <v>2021.282938755205</v>
       </c>
       <c r="V15" t="n">
-        <v>1786.130830523463</v>
+        <v>1786.130830523462</v>
       </c>
       <c r="W15" t="n">
-        <v>1531.893473795261</v>
+        <v>1531.89347379526</v>
       </c>
       <c r="X15" t="n">
         <v>1324.041973589728</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>371.2664657797014</v>
+        <v>371.2664657797458</v>
       </c>
       <c r="C16" t="n">
-        <v>371.2664657797014</v>
+        <v>323.0419690619955</v>
       </c>
       <c r="D16" t="n">
-        <v>371.2664657797014</v>
+        <v>196.9365114939169</v>
       </c>
       <c r="E16" t="n">
-        <v>371.2664657797014</v>
+        <v>73.03459975578102</v>
       </c>
       <c r="F16" t="n">
-        <v>371.2664657797014</v>
+        <v>73.03459975578102</v>
       </c>
       <c r="G16" t="n">
-        <v>268.5551000310696</v>
+        <v>73.03459975578102</v>
       </c>
       <c r="H16" t="n">
-        <v>146.349095093182</v>
+        <v>73.03459975578102</v>
       </c>
       <c r="I16" t="n">
-        <v>73.03459975578184</v>
+        <v>73.03459975578102</v>
       </c>
       <c r="J16" t="n">
-        <v>141.6905915282712</v>
+        <v>141.6905915282731</v>
       </c>
       <c r="K16" t="n">
-        <v>369.2111338027014</v>
+        <v>369.2111338027059</v>
       </c>
       <c r="L16" t="n">
-        <v>709.3042915767513</v>
+        <v>709.3042915767585</v>
       </c>
       <c r="M16" t="n">
-        <v>1076.994696501854</v>
+        <v>1076.994696501864</v>
       </c>
       <c r="N16" t="n">
-        <v>1441.936432533273</v>
+        <v>1441.936432533285</v>
       </c>
       <c r="O16" t="n">
-        <v>1764.79939077924</v>
+        <v>1764.799390779255</v>
       </c>
       <c r="P16" t="n">
-        <v>2020.940250538453</v>
+        <v>2020.940250538471</v>
       </c>
       <c r="Q16" t="n">
-        <v>2122.083906016521</v>
+        <v>2122.083906016542</v>
       </c>
       <c r="R16" t="n">
-        <v>2056.264630618304</v>
+        <v>2056.264630618327</v>
       </c>
       <c r="S16" t="n">
-        <v>1888.589928289384</v>
+        <v>1888.58992828941</v>
       </c>
       <c r="T16" t="n">
-        <v>1690.834494703165</v>
+        <v>1690.834494703194</v>
       </c>
       <c r="U16" t="n">
-        <v>1425.742809673063</v>
+        <v>1425.742809673095</v>
       </c>
       <c r="V16" t="n">
-        <v>1195.069503311431</v>
+        <v>1195.069503311465</v>
       </c>
       <c r="W16" t="n">
-        <v>929.6635151187248</v>
+        <v>929.6635151187611</v>
       </c>
       <c r="X16" t="n">
-        <v>725.6851460649621</v>
+        <v>725.685146065001</v>
       </c>
       <c r="Y16" t="n">
-        <v>528.9037487656864</v>
+        <v>528.9037487657282</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1714.179159889915</v>
+        <v>1966.641892760141</v>
       </c>
       <c r="C17" t="n">
-        <v>1392.666275897577</v>
+        <v>1645.129008767803</v>
       </c>
       <c r="D17" t="n">
-        <v>1392.666275897577</v>
+        <v>1334.312943109126</v>
       </c>
       <c r="E17" t="n">
-        <v>1054.327656247406</v>
+        <v>995.9743234589547</v>
       </c>
       <c r="F17" t="n">
-        <v>690.7913844058719</v>
+        <v>632.4380516174205</v>
       </c>
       <c r="G17" t="n">
-        <v>323.1685671989417</v>
+        <v>323.1685671989405</v>
       </c>
       <c r="H17" t="n">
-        <v>73.03459975578183</v>
+        <v>73.03459975578102</v>
       </c>
       <c r="I17" t="n">
-        <v>73.03459975578183</v>
+        <v>73.03459975578102</v>
       </c>
       <c r="J17" t="n">
-        <v>429.3193797351602</v>
+        <v>261.9137307148064</v>
       </c>
       <c r="K17" t="n">
-        <v>763.1387534250066</v>
+        <v>595.733104404653</v>
       </c>
       <c r="L17" t="n">
-        <v>1214.172966673415</v>
+        <v>1046.767317653062</v>
       </c>
       <c r="M17" t="n">
-        <v>1747.70487134534</v>
+        <v>1580.299222324986</v>
       </c>
       <c r="N17" t="n">
-        <v>2294.483688404121</v>
+        <v>2127.078039383769</v>
       </c>
       <c r="O17" t="n">
-        <v>2797.456159283458</v>
+        <v>2949.652193119388</v>
       </c>
       <c r="P17" t="n">
-        <v>3344.426559476607</v>
+        <v>3344.426559476566</v>
       </c>
       <c r="Q17" t="n">
-        <v>3592.712921232289</v>
+        <v>3592.712921232248</v>
       </c>
       <c r="R17" t="n">
-        <v>3651.729987789091</v>
+        <v>3651.729987789051</v>
       </c>
       <c r="S17" t="n">
-        <v>3588.88895226426</v>
+        <v>3588.888952264219</v>
       </c>
       <c r="T17" t="n">
-        <v>3430.360837596555</v>
+        <v>3430.360837596515</v>
       </c>
       <c r="U17" t="n">
-        <v>3224.279993818464</v>
+        <v>3224.279993818424</v>
       </c>
       <c r="V17" t="n">
-        <v>2940.666739422967</v>
+        <v>2940.666739422927</v>
       </c>
       <c r="W17" t="n">
-        <v>2722.035191346708</v>
+        <v>2635.347717100886</v>
       </c>
       <c r="X17" t="n">
-        <v>2396.019066033702</v>
+        <v>2309.33159178788</v>
       </c>
       <c r="Y17" t="n">
-        <v>2053.329367005964</v>
+        <v>1966.641892760141</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>948.0663378047071</v>
+        <v>948.0663378047061</v>
       </c>
       <c r="C18" t="n">
-        <v>773.6133085235801</v>
+        <v>773.6133085235791</v>
       </c>
       <c r="D18" t="n">
-        <v>624.6788988623289</v>
+        <v>624.678898862328</v>
       </c>
       <c r="E18" t="n">
-        <v>465.4414438568733</v>
+        <v>465.4414438568724</v>
       </c>
       <c r="F18" t="n">
-        <v>318.9068858837583</v>
+        <v>318.9068858837575</v>
       </c>
       <c r="G18" t="n">
-        <v>182.5437857163764</v>
+        <v>182.5437857163759</v>
       </c>
       <c r="H18" t="n">
-        <v>92.04189135424389</v>
+        <v>92.04189135424349</v>
       </c>
       <c r="I18" t="n">
-        <v>73.03459975578183</v>
+        <v>73.03459975578102</v>
       </c>
       <c r="J18" t="n">
-        <v>166.7118692463991</v>
+        <v>166.7118692463982</v>
       </c>
       <c r="K18" t="n">
-        <v>404.9760682267462</v>
+        <v>404.9760682267451</v>
       </c>
       <c r="L18" t="n">
-        <v>771.6742285394114</v>
+        <v>771.6742285394107</v>
       </c>
       <c r="M18" t="n">
-        <v>1218.950553761727</v>
+        <v>1218.950553761726</v>
       </c>
       <c r="N18" t="n">
-        <v>1692.473597316182</v>
+        <v>1692.473597316181</v>
       </c>
       <c r="O18" t="n">
         <v>2103.434876734236</v>
@@ -5616,28 +5616,28 @@
         <v>2571.576025856939</v>
       </c>
       <c r="R18" t="n">
-        <v>2571.431672449455</v>
+        <v>2571.431672449454</v>
       </c>
       <c r="S18" t="n">
-        <v>2441.993785942935</v>
+        <v>2441.993785942934</v>
       </c>
       <c r="T18" t="n">
-        <v>2249.350785620791</v>
+        <v>2249.35078562079</v>
       </c>
       <c r="U18" t="n">
-        <v>2021.282938755206</v>
+        <v>2021.282938755205</v>
       </c>
       <c r="V18" t="n">
         <v>1786.130830523463</v>
       </c>
       <c r="W18" t="n">
-        <v>1531.893473795262</v>
+        <v>1531.893473795261</v>
       </c>
       <c r="X18" t="n">
-        <v>1324.041973589729</v>
+        <v>1324.041973589728</v>
       </c>
       <c r="Y18" t="n">
-        <v>1116.281674824775</v>
+        <v>1116.281674824774</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>765.9887331288927</v>
+        <v>765.9887331288919</v>
       </c>
       <c r="C19" t="n">
-        <v>644.5021831490591</v>
+        <v>644.5021831490583</v>
       </c>
       <c r="D19" t="n">
-        <v>541.8351766847967</v>
+        <v>541.8351766847959</v>
       </c>
       <c r="E19" t="n">
-        <v>441.3717160504769</v>
+        <v>441.3717160504761</v>
       </c>
       <c r="F19" t="n">
-        <v>341.9314015006399</v>
+        <v>341.931401500639</v>
       </c>
       <c r="G19" t="n">
-        <v>221.6781978234322</v>
+        <v>221.6781978234313</v>
       </c>
       <c r="H19" t="n">
-        <v>122.9106439893632</v>
+        <v>122.9106439893624</v>
       </c>
       <c r="I19" t="n">
-        <v>73.03459975578183</v>
+        <v>73.03459975578102</v>
       </c>
       <c r="J19" t="n">
-        <v>164.6626174551241</v>
+        <v>164.6626174551232</v>
       </c>
       <c r="K19" t="n">
-        <v>415.1551856564071</v>
+        <v>415.1551856564062</v>
       </c>
       <c r="L19" t="n">
-        <v>778.2203693573099</v>
+        <v>778.2203693573088</v>
       </c>
       <c r="M19" t="n">
-        <v>1168.882800209265</v>
+        <v>1168.882800209264</v>
       </c>
       <c r="N19" t="n">
-        <v>1556.796562167537</v>
+        <v>1556.796562167536</v>
       </c>
       <c r="O19" t="n">
-        <v>1902.631546340357</v>
+        <v>1902.631546340356</v>
       </c>
       <c r="P19" t="n">
-        <v>2181.744432026423</v>
+        <v>2181.744432026422</v>
       </c>
       <c r="Q19" t="n">
-        <v>2305.860113431344</v>
+        <v>2305.860113431343</v>
       </c>
       <c r="R19" t="n">
-        <v>2263.479289136945</v>
+        <v>2263.479289136944</v>
       </c>
       <c r="S19" t="n">
-        <v>2119.243037911845</v>
+        <v>2119.243037911844</v>
       </c>
       <c r="T19" t="n">
-        <v>1944.926055429444</v>
+        <v>1944.926055429443</v>
       </c>
       <c r="U19" t="n">
-        <v>1703.272821503161</v>
+        <v>1703.27282150316</v>
       </c>
       <c r="V19" t="n">
         <v>1496.037966245347</v>
       </c>
       <c r="W19" t="n">
-        <v>1254.07042915646</v>
+        <v>1254.070429156459</v>
       </c>
       <c r="X19" t="n">
-        <v>1073.530511206516</v>
+        <v>1073.530511206515</v>
       </c>
       <c r="Y19" t="n">
-        <v>900.1875650110591</v>
+        <v>900.1875650110583</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1774.861258105433</v>
+        <v>1627.491685644092</v>
       </c>
       <c r="C20" t="n">
-        <v>1453.348374113095</v>
+        <v>1305.978801651754</v>
       </c>
       <c r="D20" t="n">
-        <v>1142.532308454417</v>
+        <v>995.1627359930766</v>
       </c>
       <c r="E20" t="n">
-        <v>804.1936888042466</v>
+        <v>656.8241163429057</v>
       </c>
       <c r="F20" t="n">
-        <v>440.657416962712</v>
+        <v>293.2878445013714</v>
       </c>
       <c r="G20" t="n">
-        <v>73.03459975578183</v>
+        <v>293.2878445013714</v>
       </c>
       <c r="H20" t="n">
-        <v>73.03459975578183</v>
+        <v>73.03459975578102</v>
       </c>
       <c r="I20" t="n">
-        <v>73.03459975578183</v>
+        <v>73.03459975578102</v>
       </c>
       <c r="J20" t="n">
-        <v>429.3193797351602</v>
+        <v>261.9137307148064</v>
       </c>
       <c r="K20" t="n">
-        <v>763.1387534250066</v>
+        <v>595.7331044046527</v>
       </c>
       <c r="L20" t="n">
-        <v>1214.172966673415</v>
+        <v>1046.767317653061</v>
       </c>
       <c r="M20" t="n">
-        <v>1747.70487134534</v>
+        <v>1899.900905181269</v>
       </c>
       <c r="N20" t="n">
-        <v>2294.483688404121</v>
+        <v>2446.679722240051</v>
       </c>
       <c r="O20" t="n">
-        <v>2797.456159283458</v>
+        <v>2949.652193119388</v>
       </c>
       <c r="P20" t="n">
-        <v>3192.230525640636</v>
+        <v>3344.426559476566</v>
       </c>
       <c r="Q20" t="n">
-        <v>3592.712921232289</v>
+        <v>3592.712921232248</v>
       </c>
       <c r="R20" t="n">
-        <v>3651.729987789091</v>
+        <v>3651.729987789051</v>
       </c>
       <c r="S20" t="n">
-        <v>3651.729987789091</v>
+        <v>3588.888952264219</v>
       </c>
       <c r="T20" t="n">
-        <v>3493.201873121387</v>
+        <v>3430.360837596515</v>
       </c>
       <c r="U20" t="n">
-        <v>3371.649566279765</v>
+        <v>3224.279993818424</v>
       </c>
       <c r="V20" t="n">
-        <v>3088.036311884267</v>
+        <v>2940.666739422926</v>
       </c>
       <c r="W20" t="n">
-        <v>2782.717289562227</v>
+        <v>2635.347717100885</v>
       </c>
       <c r="X20" t="n">
-        <v>2456.70116424922</v>
+        <v>2309.331591787879</v>
       </c>
       <c r="Y20" t="n">
-        <v>2114.011465221482</v>
+        <v>1966.641892760141</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>948.0663378047071</v>
+        <v>948.0663378047054</v>
       </c>
       <c r="C21" t="n">
-        <v>773.6133085235801</v>
+        <v>773.6133085235784</v>
       </c>
       <c r="D21" t="n">
-        <v>624.6788988623289</v>
+        <v>624.6788988623272</v>
       </c>
       <c r="E21" t="n">
-        <v>465.4414438568733</v>
+        <v>465.4414438568717</v>
       </c>
       <c r="F21" t="n">
-        <v>318.9068858837583</v>
+        <v>318.9068858837567</v>
       </c>
       <c r="G21" t="n">
-        <v>182.5437857163764</v>
+        <v>182.5437857163748</v>
       </c>
       <c r="H21" t="n">
-        <v>92.04189135424389</v>
+        <v>92.04189135424228</v>
       </c>
       <c r="I21" t="n">
-        <v>73.03459975578183</v>
+        <v>73.03459975578102</v>
       </c>
       <c r="J21" t="n">
-        <v>166.7118692463991</v>
+        <v>166.7118692463983</v>
       </c>
       <c r="K21" t="n">
-        <v>404.9760682267462</v>
+        <v>404.9760682267454</v>
       </c>
       <c r="L21" t="n">
-        <v>771.6742285394114</v>
+        <v>771.6742285394107</v>
       </c>
       <c r="M21" t="n">
-        <v>1218.950553761727</v>
+        <v>1218.950553761726</v>
       </c>
       <c r="N21" t="n">
-        <v>1692.473597316182</v>
+        <v>1692.473597316181</v>
       </c>
       <c r="O21" t="n">
         <v>2103.434876734236</v>
       </c>
       <c r="P21" t="n">
-        <v>2413.934468210339</v>
+        <v>2413.934468210338</v>
       </c>
       <c r="Q21" t="n">
-        <v>2571.576025856939</v>
+        <v>2571.576025856938</v>
       </c>
       <c r="R21" t="n">
-        <v>2571.431672449455</v>
+        <v>2571.431672449453</v>
       </c>
       <c r="S21" t="n">
-        <v>2441.993785942935</v>
+        <v>2441.993785942933</v>
       </c>
       <c r="T21" t="n">
-        <v>2249.350785620791</v>
+        <v>2249.350785620789</v>
       </c>
       <c r="U21" t="n">
-        <v>2021.282938755206</v>
+        <v>2021.282938755204</v>
       </c>
       <c r="V21" t="n">
-        <v>1786.130830523463</v>
+        <v>1786.130830523462</v>
       </c>
       <c r="W21" t="n">
-        <v>1531.893473795262</v>
+        <v>1531.89347379526</v>
       </c>
       <c r="X21" t="n">
-        <v>1324.041973589729</v>
+        <v>1324.041973589727</v>
       </c>
       <c r="Y21" t="n">
-        <v>1116.281674824775</v>
+        <v>1116.281674824774</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>765.9887331288926</v>
+        <v>765.9887331288919</v>
       </c>
       <c r="C22" t="n">
-        <v>644.502183149059</v>
+        <v>644.5021831490583</v>
       </c>
       <c r="D22" t="n">
-        <v>541.8351766847966</v>
+        <v>541.8351766847959</v>
       </c>
       <c r="E22" t="n">
-        <v>441.3717160504768</v>
+        <v>441.3717160504762</v>
       </c>
       <c r="F22" t="n">
-        <v>341.9314015006398</v>
+        <v>341.9314015006391</v>
       </c>
       <c r="G22" t="n">
-        <v>221.6781978234321</v>
+        <v>221.6781978234314</v>
       </c>
       <c r="H22" t="n">
-        <v>122.9106439893632</v>
+        <v>122.9106439893624</v>
       </c>
       <c r="I22" t="n">
-        <v>73.03459975578183</v>
+        <v>73.03459975578102</v>
       </c>
       <c r="J22" t="n">
-        <v>164.662617455124</v>
+        <v>164.6626174551232</v>
       </c>
       <c r="K22" t="n">
-        <v>415.155185656407</v>
+        <v>415.1551856564065</v>
       </c>
       <c r="L22" t="n">
-        <v>778.2203693573097</v>
+        <v>778.2203693573092</v>
       </c>
       <c r="M22" t="n">
         <v>1168.882800209265</v>
@@ -5950,10 +5950,10 @@
         <v>1254.07042915646</v>
       </c>
       <c r="X22" t="n">
-        <v>1073.530511206516</v>
+        <v>1073.530511206515</v>
       </c>
       <c r="Y22" t="n">
-        <v>900.187565011059</v>
+        <v>900.1875650110583</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398486</v>
@@ -5987,25 +5987,25 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J23" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K23" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L23" t="n">
-        <v>1222.285283814323</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M23" t="n">
-        <v>1755.817188486247</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N23" t="n">
-        <v>2302.596005545029</v>
+        <v>2548.674958929621</v>
       </c>
       <c r="O23" t="n">
-        <v>2805.568476424366</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P23" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q23" t="n">
         <v>3933.269522603403</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D24" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F24" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I24" t="n">
         <v>81.14691689668916</v>
@@ -6090,25 +6090,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R24" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S24" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T24" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U24" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V24" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W24" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X24" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y24" t="n">
         <v>1124.393991965682</v>
@@ -6160,10 +6160,10 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q25" t="n">
         <v>2313.972430572251</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2067.381871868336</v>
+        <v>2067.381871868334</v>
       </c>
       <c r="C26" t="n">
-        <v>1740.416253688455</v>
+        <v>1740.416253688454</v>
       </c>
       <c r="D26" t="n">
-        <v>1424.147453842236</v>
+        <v>1424.147453842235</v>
       </c>
       <c r="E26" t="n">
-        <v>1080.356100004523</v>
+        <v>1080.356100004522</v>
       </c>
       <c r="F26" t="n">
-        <v>711.3670939754467</v>
+        <v>711.3670939754463</v>
       </c>
       <c r="G26" t="n">
-        <v>338.2915425809741</v>
+        <v>338.2915425809742</v>
       </c>
       <c r="H26" t="n">
-        <v>82.7048409502726</v>
+        <v>82.70484095027257</v>
       </c>
       <c r="I26" t="n">
-        <v>82.7048409502726</v>
+        <v>82.70484095027257</v>
       </c>
       <c r="J26" t="n">
-        <v>438.989620929651</v>
+        <v>271.5839719092979</v>
       </c>
       <c r="K26" t="n">
-        <v>772.8089946194973</v>
+        <v>605.4033455991444</v>
       </c>
       <c r="L26" t="n">
-        <v>1223.843207867906</v>
+        <v>1056.437558847553</v>
       </c>
       <c r="M26" t="n">
-        <v>1757.37511253983</v>
+        <v>2034.987861677381</v>
       </c>
       <c r="N26" t="n">
-        <v>2304.153929598612</v>
+        <v>2865.132526290377</v>
       </c>
       <c r="O26" t="n">
-        <v>2839.332435326641</v>
+        <v>3368.104997169713</v>
       </c>
       <c r="P26" t="n">
-        <v>3552.687522773586</v>
+        <v>3762.879363526891</v>
       </c>
       <c r="Q26" t="n">
-        <v>4011.165725282574</v>
+        <v>4011.165725282573</v>
       </c>
       <c r="R26" t="n">
-        <v>4135.24204751363</v>
+        <v>4135.242047513629</v>
       </c>
       <c r="S26" t="n">
-        <v>4066.948277801256</v>
+        <v>4066.948277801255</v>
       </c>
       <c r="T26" t="n">
-        <v>3902.967428946009</v>
+        <v>3902.967428946008</v>
       </c>
       <c r="U26" t="n">
-        <v>3691.433850980377</v>
+        <v>3691.433850980376</v>
       </c>
       <c r="V26" t="n">
-        <v>3402.367862397338</v>
+        <v>3402.367862397336</v>
       </c>
       <c r="W26" t="n">
-        <v>3091.596105887755</v>
+        <v>3091.596105887754</v>
       </c>
       <c r="X26" t="n">
-        <v>2760.127246387206</v>
+        <v>2760.127246387205</v>
       </c>
       <c r="Y26" t="n">
-        <v>2411.984813171926</v>
+        <v>2411.984813171925</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>957.7365789991978</v>
+        <v>957.736578999197</v>
       </c>
       <c r="C27" t="n">
-        <v>783.2835497180708</v>
+        <v>783.28354971807</v>
       </c>
       <c r="D27" t="n">
-        <v>634.3491400568196</v>
+        <v>634.3491400568188</v>
       </c>
       <c r="E27" t="n">
-        <v>475.1116850513641</v>
+        <v>475.1116850513633</v>
       </c>
       <c r="F27" t="n">
-        <v>328.5771270782491</v>
+        <v>328.5771270782483</v>
       </c>
       <c r="G27" t="n">
-        <v>192.2140269108672</v>
+        <v>192.2140269108664</v>
       </c>
       <c r="H27" t="n">
-        <v>101.7121325487347</v>
+        <v>101.7121325487339</v>
       </c>
       <c r="I27" t="n">
-        <v>82.7048409502726</v>
+        <v>82.70484095027257</v>
       </c>
       <c r="J27" t="n">
-        <v>176.3821104408899</v>
+        <v>176.3821104408898</v>
       </c>
       <c r="K27" t="n">
-        <v>414.646309421237</v>
+        <v>414.6463094212369</v>
       </c>
       <c r="L27" t="n">
-        <v>781.3444697339023</v>
+        <v>781.3444697339022</v>
       </c>
       <c r="M27" t="n">
         <v>1228.620794956218</v>
@@ -6324,31 +6324,31 @@
         <v>2423.60470940483</v>
       </c>
       <c r="Q27" t="n">
-        <v>2581.246267051431</v>
+        <v>2581.24626705143</v>
       </c>
       <c r="R27" t="n">
-        <v>2581.101913643946</v>
+        <v>2581.101913643945</v>
       </c>
       <c r="S27" t="n">
-        <v>2451.664027137426</v>
+        <v>2451.664027137425</v>
       </c>
       <c r="T27" t="n">
-        <v>2259.021026815281</v>
+        <v>2259.02102681528</v>
       </c>
       <c r="U27" t="n">
-        <v>2030.953179949697</v>
+        <v>2030.953179949696</v>
       </c>
       <c r="V27" t="n">
-        <v>1795.801071717954</v>
+        <v>1795.801071717953</v>
       </c>
       <c r="W27" t="n">
         <v>1541.563714989752</v>
       </c>
       <c r="X27" t="n">
-        <v>1333.71221478422</v>
+        <v>1333.712214784219</v>
       </c>
       <c r="Y27" t="n">
-        <v>1125.951916019266</v>
+        <v>1125.951916019265</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>758.4993352150543</v>
+        <v>683.8305684178268</v>
       </c>
       <c r="C28" t="n">
-        <v>631.5600510476787</v>
+        <v>556.8912842504512</v>
       </c>
       <c r="D28" t="n">
-        <v>523.4403103958743</v>
+        <v>448.7715435986469</v>
       </c>
       <c r="E28" t="n">
-        <v>417.5241155740126</v>
+        <v>342.8553487767851</v>
       </c>
       <c r="F28" t="n">
-        <v>312.6310668366335</v>
+        <v>237.9623000394061</v>
       </c>
       <c r="G28" t="n">
-        <v>186.9251289718835</v>
+        <v>112.2563621746559</v>
       </c>
       <c r="H28" t="n">
-        <v>82.7048409502726</v>
+        <v>82.70484095027257</v>
       </c>
       <c r="I28" t="n">
-        <v>82.7048409502726</v>
+        <v>82.70484095027257</v>
       </c>
       <c r="J28" t="n">
-        <v>168.9886338724048</v>
+        <v>168.9886338724049</v>
       </c>
       <c r="K28" t="n">
         <v>414.1369772964779</v>
       </c>
       <c r="L28" t="n">
-        <v>771.8579362201707</v>
+        <v>771.8579362201708</v>
       </c>
       <c r="M28" t="n">
-        <v>1157.176142294916</v>
+        <v>1157.176142294917</v>
       </c>
       <c r="N28" t="n">
         <v>1539.745679475978</v>
@@ -6403,31 +6403,31 @@
         <v>2154.005099780444</v>
       </c>
       <c r="Q28" t="n">
-        <v>2272.776556408155</v>
+        <v>2272.776556408156</v>
       </c>
       <c r="R28" t="n">
         <v>2224.942997926215</v>
       </c>
       <c r="S28" t="n">
-        <v>2149.9227793108</v>
+        <v>2075.254012513573</v>
       </c>
       <c r="T28" t="n">
-        <v>1970.153062640858</v>
+        <v>1895.48429584363</v>
       </c>
       <c r="U28" t="n">
-        <v>1723.047094527032</v>
+        <v>1648.378327729805</v>
       </c>
       <c r="V28" t="n">
-        <v>1510.359505081677</v>
+        <v>1435.690738284449</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.939233805248</v>
+        <v>1188.27046700802</v>
       </c>
       <c r="X28" t="n">
-        <v>1076.946581667762</v>
+        <v>1002.277814870534</v>
       </c>
       <c r="Y28" t="n">
-        <v>898.1509012847628</v>
+        <v>823.4821344875352</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2067.381871868335</v>
       </c>
       <c r="C29" t="n">
-        <v>1740.416253688455</v>
+        <v>1740.416253688454</v>
       </c>
       <c r="D29" t="n">
-        <v>1424.147453842236</v>
+        <v>1424.147453842235</v>
       </c>
       <c r="E29" t="n">
-        <v>1080.356100004523</v>
+        <v>1080.356100004522</v>
       </c>
       <c r="F29" t="n">
-        <v>711.3670939754466</v>
+        <v>711.367093975446</v>
       </c>
       <c r="G29" t="n">
-        <v>338.2915425809738</v>
+        <v>338.291542580974</v>
       </c>
       <c r="H29" t="n">
         <v>82.70484095027257</v>
@@ -6467,22 +6467,22 @@
         <v>926.3073040445973</v>
       </c>
       <c r="L29" t="n">
-        <v>1377.341517293006</v>
+        <v>1784.82180455967</v>
       </c>
       <c r="M29" t="n">
-        <v>1910.87342196493</v>
+        <v>2318.353709231595</v>
       </c>
       <c r="N29" t="n">
-        <v>2457.652239023712</v>
+        <v>2865.132526290377</v>
       </c>
       <c r="O29" t="n">
-        <v>2960.624709903049</v>
+        <v>3368.104997169713</v>
       </c>
       <c r="P29" t="n">
-        <v>3673.979797349995</v>
+        <v>3762.879363526891</v>
       </c>
       <c r="Q29" t="n">
-        <v>4076.224980956826</v>
+        <v>4011.165725282573</v>
       </c>
       <c r="R29" t="n">
         <v>4135.242047513629</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>957.7365789991978</v>
+        <v>957.736578999197</v>
       </c>
       <c r="C30" t="n">
-        <v>783.2835497180708</v>
+        <v>783.28354971807</v>
       </c>
       <c r="D30" t="n">
-        <v>634.3491400568196</v>
+        <v>634.3491400568188</v>
       </c>
       <c r="E30" t="n">
-        <v>475.111685051364</v>
+        <v>475.1116850513633</v>
       </c>
       <c r="F30" t="n">
-        <v>328.577127078249</v>
+        <v>328.5771270782483</v>
       </c>
       <c r="G30" t="n">
-        <v>192.2140269108671</v>
+        <v>192.2140269108664</v>
       </c>
       <c r="H30" t="n">
-        <v>101.7121325487346</v>
+        <v>101.7121325487339</v>
       </c>
       <c r="I30" t="n">
         <v>82.70484095027257</v>
@@ -6546,46 +6546,46 @@
         <v>414.6463094212369</v>
       </c>
       <c r="L30" t="n">
-        <v>781.344469733903</v>
+        <v>781.3444697339022</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.620794956219</v>
+        <v>1228.620794956218</v>
       </c>
       <c r="N30" t="n">
         <v>1702.143838510673</v>
       </c>
       <c r="O30" t="n">
-        <v>2113.105117928728</v>
+        <v>2113.105117928727</v>
       </c>
       <c r="P30" t="n">
-        <v>2423.604709404831</v>
+        <v>2423.60470940483</v>
       </c>
       <c r="Q30" t="n">
-        <v>2581.246267051431</v>
+        <v>2581.24626705143</v>
       </c>
       <c r="R30" t="n">
-        <v>2581.101913643946</v>
+        <v>2581.101913643945</v>
       </c>
       <c r="S30" t="n">
-        <v>2451.664027137426</v>
+        <v>2451.664027137425</v>
       </c>
       <c r="T30" t="n">
-        <v>2259.021026815281</v>
+        <v>2259.02102681528</v>
       </c>
       <c r="U30" t="n">
-        <v>2030.953179949697</v>
+        <v>2030.953179949696</v>
       </c>
       <c r="V30" t="n">
-        <v>1795.801071717954</v>
+        <v>1795.801071717953</v>
       </c>
       <c r="W30" t="n">
         <v>1541.563714989752</v>
       </c>
       <c r="X30" t="n">
-        <v>1333.71221478422</v>
+        <v>1333.712214784219</v>
       </c>
       <c r="Y30" t="n">
-        <v>1125.951916019266</v>
+        <v>1125.951916019265</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>813.8281136361775</v>
+        <v>683.8305684178259</v>
       </c>
       <c r="C31" t="n">
-        <v>686.8888294688019</v>
+        <v>556.8912842504501</v>
       </c>
       <c r="D31" t="n">
-        <v>578.7690888169975</v>
+        <v>448.7715435986457</v>
       </c>
       <c r="E31" t="n">
-        <v>472.8528939951357</v>
+        <v>342.855348776784</v>
       </c>
       <c r="F31" t="n">
-        <v>367.9598452577565</v>
+        <v>237.9623000394049</v>
       </c>
       <c r="G31" t="n">
-        <v>242.2539073930068</v>
+        <v>112.2563621746554</v>
       </c>
       <c r="H31" t="n">
-        <v>138.0336193713959</v>
+        <v>112.2563621746554</v>
       </c>
       <c r="I31" t="n">
         <v>82.70484095027257</v>
       </c>
       <c r="J31" t="n">
-        <v>168.9886338724046</v>
+        <v>168.9886338724048</v>
       </c>
       <c r="K31" t="n">
-        <v>414.1369772964777</v>
+        <v>414.1369772964779</v>
       </c>
       <c r="L31" t="n">
-        <v>771.8579362201706</v>
+        <v>771.8579362201704</v>
       </c>
       <c r="M31" t="n">
         <v>1157.176142294916</v>
       </c>
       <c r="N31" t="n">
-        <v>1539.745679475978</v>
+        <v>1539.745679475977</v>
       </c>
       <c r="O31" t="n">
-        <v>1880.236438871588</v>
+        <v>1880.236438871587</v>
       </c>
       <c r="P31" t="n">
-        <v>2154.005099780444</v>
+        <v>2154.005099780443</v>
       </c>
       <c r="Q31" t="n">
         <v>2272.776556408155</v>
       </c>
       <c r="R31" t="n">
-        <v>2224.942997926215</v>
+        <v>2224.942997926214</v>
       </c>
       <c r="S31" t="n">
         <v>2075.254012513572</v>
       </c>
       <c r="T31" t="n">
-        <v>1895.48429584363</v>
+        <v>1895.484295843629</v>
       </c>
       <c r="U31" t="n">
-        <v>1648.378327729805</v>
+        <v>1648.378327729804</v>
       </c>
       <c r="V31" t="n">
         <v>1435.690738284449</v>
       </c>
       <c r="W31" t="n">
-        <v>1188.27046700802</v>
+        <v>1188.270467008019</v>
       </c>
       <c r="X31" t="n">
-        <v>1002.277814870534</v>
+        <v>1002.277814870533</v>
       </c>
       <c r="Y31" t="n">
-        <v>953.4796797058859</v>
+        <v>823.4821344875345</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1711.928363749534</v>
       </c>
       <c r="D32" t="n">
-        <v>1401.112298090857</v>
+        <v>1401.112298090856</v>
       </c>
       <c r="E32" t="n">
         <v>1062.773678440686</v>
       </c>
       <c r="F32" t="n">
-        <v>699.2374065991515</v>
+        <v>699.2374065991514</v>
       </c>
       <c r="G32" t="n">
         <v>331.6145893922213</v>
@@ -6701,25 +6701,25 @@
         <v>270.3597529080872</v>
       </c>
       <c r="K32" t="n">
-        <v>925.0830850433865</v>
+        <v>604.1791265979335</v>
       </c>
       <c r="L32" t="n">
-        <v>1376.117298291795</v>
+        <v>1055.213339846342</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.649202963719</v>
+        <v>1669.958738967631</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.428020022501</v>
+        <v>2216.737556026413</v>
       </c>
       <c r="O32" t="n">
-        <v>2959.400490901838</v>
+        <v>3096.702206355867</v>
       </c>
       <c r="P32" t="n">
-        <v>3556.535828387298</v>
+        <v>3491.476572713045</v>
       </c>
       <c r="Q32" t="n">
-        <v>4015.014030896286</v>
+        <v>3949.954775222033</v>
       </c>
       <c r="R32" t="n">
         <v>4074.031097453088</v>
@@ -6737,13 +6737,13 @@
         <v>3362.967849086965</v>
       </c>
       <c r="W32" t="n">
-        <v>3041.297279198666</v>
+        <v>3057.648826764924</v>
       </c>
       <c r="X32" t="n">
-        <v>2715.281153885659</v>
+        <v>2731.632701451917</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.591454857921</v>
+        <v>2372.59145485792</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6786,19 @@
         <v>780.1202507326914</v>
       </c>
       <c r="M33" t="n">
-        <v>1227.396575955007</v>
+        <v>1227.396575955008</v>
       </c>
       <c r="N33" t="n">
         <v>1700.919619509462</v>
       </c>
       <c r="O33" t="n">
-        <v>2111.880898927516</v>
+        <v>2111.880898927517</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.380490403619</v>
+        <v>2422.38049040362</v>
       </c>
       <c r="Q33" t="n">
-        <v>2580.022048050218</v>
+        <v>2580.022048050219</v>
       </c>
       <c r="R33" t="n">
         <v>2579.877694642735</v>
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.4347553221724</v>
+        <v>774.4347553221722</v>
       </c>
       <c r="C34" t="n">
-        <v>652.9482053423387</v>
+        <v>652.9482053423386</v>
       </c>
       <c r="D34" t="n">
-        <v>550.2811988780763</v>
+        <v>550.2811988780762</v>
       </c>
       <c r="E34" t="n">
         <v>449.8177382437565</v>
       </c>
       <c r="F34" t="n">
-        <v>350.3774236939194</v>
+        <v>350.3774236939195</v>
       </c>
       <c r="G34" t="n">
         <v>230.1242200167117</v>
       </c>
       <c r="H34" t="n">
-        <v>131.3566661826432</v>
+        <v>131.3566661826428</v>
       </c>
       <c r="I34" t="n">
         <v>81.48062194906177</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1086396484039</v>
+        <v>173.1086396484042</v>
       </c>
       <c r="K34" t="n">
-        <v>423.6012078496868</v>
+        <v>423.6012078496872</v>
       </c>
       <c r="L34" t="n">
-        <v>786.6663915505895</v>
+        <v>786.6663915505899</v>
       </c>
       <c r="M34" t="n">
         <v>1177.328822402545</v>
       </c>
       <c r="N34" t="n">
-        <v>1565.242584360816</v>
+        <v>1565.242584360817</v>
       </c>
       <c r="O34" t="n">
-        <v>1911.077568533636</v>
+        <v>1911.077568533637</v>
       </c>
       <c r="P34" t="n">
-        <v>2190.190454219702</v>
+        <v>2190.190454219703</v>
       </c>
       <c r="Q34" t="n">
-        <v>2314.306135624623</v>
+        <v>2314.306135624624</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.925311330224</v>
+        <v>2271.925311330225</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.689060105124</v>
+        <v>2127.689060105125</v>
       </c>
       <c r="T34" t="n">
         <v>1953.372077622724</v>
@@ -6895,13 +6895,13 @@
         <v>1504.483988438627</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.516451349739</v>
+        <v>1262.51645134974</v>
       </c>
       <c r="X34" t="n">
         <v>1081.976533399795</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.6335872043387</v>
+        <v>908.6335872043386</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398486</v>
@@ -6935,31 +6935,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K35" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486247</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.596005545029</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424366</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P35" t="n">
-        <v>3518.923563871311</v>
+        <v>3728.510094301076</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3976.796456056758</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S35" t="n">
         <v>3994.504809309626</v>
@@ -6968,7 +6968,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468334</v>
@@ -6977,10 +6977,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D36" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F36" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I36" t="n">
         <v>81.14691689668915</v>
@@ -7038,25 +7038,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R36" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S36" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T36" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U36" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V36" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W36" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X36" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y36" t="n">
         <v>1124.393991965682</v>
@@ -7096,10 +7096,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350172</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K38" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1273.952146712635</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486247</v>
+        <v>1807.484051384559</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.596005545029</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424366</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F39" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873064</v>
@@ -7272,28 +7272,28 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q39" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R39" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S39" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T39" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U39" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V39" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W39" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X39" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y39" t="n">
         <v>1124.393991965682</v>
@@ -7306,55 +7306,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415467</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302705</v>
+        <v>131.02296113027</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982167</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
         <v>2127.355355052752</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455608</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.879634793969</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M41" t="n">
-        <v>2033.429937623798</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N41" t="n">
-        <v>2852.295579285458</v>
+        <v>2623.499963990482</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164795</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F42" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873064</v>
@@ -7512,25 +7512,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R42" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S42" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T42" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U42" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V42" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W42" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X42" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y42" t="n">
         <v>1124.393991965682</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F43" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
         <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>771.251070565914</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1329.933422430382</v>
       </c>
       <c r="M44" t="n">
-        <v>2200.835586644151</v>
+        <v>1863.465327102306</v>
       </c>
       <c r="N44" t="n">
-        <v>2747.614403702933</v>
+        <v>2410.244144161089</v>
       </c>
       <c r="O44" t="n">
-        <v>3250.58687458227</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P44" t="n">
-        <v>3645.361240939448</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q44" t="n">
         <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309627</v>
@@ -7682,7 +7682,7 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7691,7 +7691,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873064</v>
@@ -7749,25 +7749,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R45" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S45" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T45" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U45" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V45" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W45" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X45" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y45" t="n">
         <v>1124.393991965682</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960316</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L46" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7822,7 +7822,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572251</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>235.3925885601156</v>
+        <v>234.7742961352617</v>
       </c>
       <c r="L8" t="n">
-        <v>251.0691524851223</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>245.6489707424078</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>244.097508686872</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,16 +8538,16 @@
         <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
-        <v>156.8184790122994</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>148.6588525046114</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8620,10 +8620,10 @@
         <v>154.2285214627401</v>
       </c>
       <c r="N10" t="n">
-        <v>142.9882819803682</v>
+        <v>142.3699895555143</v>
       </c>
       <c r="O10" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>110.5149920232086</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,10 +8942,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.031274511672706</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9176,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>322.8299826831136</v>
       </c>
       <c r="P17" t="n">
-        <v>153.7333675110811</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>322.8299826831148</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.7333675110812</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,13 +9650,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>240.9710754359442</v>
       </c>
       <c r="P23" t="n">
-        <v>277.2206841544156</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,19 +9881,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>286.2281288426395</v>
       </c>
       <c r="O26" t="n">
-        <v>32.53134833201182</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>411.5962497643075</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>155.5139614658071</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10349,28 +10349,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>82.03383277713567</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>204.4050213416988</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>167.7369666428374</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>21.74982042514783</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>221.2853655744092</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>277.220684154416</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>274.8351763665437</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>18.79169145623405</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>277.832108723649</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>40.0221413214874</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>341.5018217451956</v>
+        <v>36.18842387153381</v>
       </c>
       <c r="D11" t="n">
-        <v>310.184305371007</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>383.1049757158995</v>
+        <v>383.1049757158968</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>270.8366943615059</v>
       </c>
       <c r="I11" t="n">
-        <v>17.805859747114</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>362.466868630239</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>69.72907957249285</v>
+        <v>124.8444029923977</v>
       </c>
       <c r="E13" t="n">
-        <v>122.6628926207572</v>
+        <v>122.6628926207546</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>90.86012659471068</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>142.2547382332136</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.58135038402349</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>165.9979553056299</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.8135833262828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.25452922961362</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>341.5018217451929</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>387.1506556276388</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.538819178624511</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>325.469898691601</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>362.4668686302416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>143.4757510728159</v>
+        <v>95.73349932224043</v>
       </c>
       <c r="D16" t="n">
-        <v>124.8444029924004</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>122.6628926207572</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>121.6499779971193</v>
+        <v>121.6499779971166</v>
       </c>
       <c r="G16" t="n">
-        <v>40.57048614207073</v>
+        <v>142.2547382332136</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>120.9839448885062</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.58135038402344</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>57.76979946056547</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>85.82059950332375</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>29.58191547059346</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958327</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>83.68325156710372</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>73.92207912925522</v>
       </c>
       <c r="I28" t="n">
-        <v>54.7754906369121</v>
+        <v>54.77549063691207</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>73.92207912925534</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>25.51948462477315</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.6975697661673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>876703.0724049691</v>
+        <v>876703.0724049747</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915277.753275954</v>
+        <v>915277.7532759546</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>963941.1642839566</v>
+        <v>963941.1642839519</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>963941.1642839566</v>
+        <v>963941.1642839517</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1010206.625959767</v>
+        <v>1010206.625959768</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1010206.625959768</v>
+        <v>1010206.625959767</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450601.9862943713</v>
+        <v>450601.9862943711</v>
       </c>
       <c r="C2" t="n">
-        <v>450601.9862943711</v>
+        <v>450601.9862943712</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>398187.9920607454</v>
+        <v>398187.9920607482</v>
       </c>
       <c r="F2" t="n">
-        <v>412040.2321194407</v>
+        <v>412040.2321194417</v>
       </c>
       <c r="G2" t="n">
-        <v>434344.295498109</v>
+        <v>434344.2954981074</v>
       </c>
       <c r="H2" t="n">
-        <v>434344.2954981091</v>
+        <v>434344.2954981073</v>
       </c>
       <c r="I2" t="n">
-        <v>451572.9734253563</v>
+        <v>451572.9734253561</v>
       </c>
       <c r="J2" t="n">
+        <v>449874.1655044422</v>
+      </c>
+      <c r="K2" t="n">
         <v>449874.1655044424</v>
-      </c>
-      <c r="K2" t="n">
-        <v>449874.1655044425</v>
       </c>
       <c r="L2" t="n">
         <v>451572.973425356</v>
       </c>
       <c r="M2" t="n">
+        <v>451572.9734253561</v>
+      </c>
+      <c r="N2" t="n">
+        <v>451572.973425356</v>
+      </c>
+      <c r="O2" t="n">
         <v>451572.9734253563</v>
       </c>
-      <c r="N2" t="n">
-        <v>451572.9734253562</v>
-      </c>
-      <c r="O2" t="n">
-        <v>451572.9734253561</v>
-      </c>
       <c r="P2" t="n">
-        <v>451572.9734253563</v>
+        <v>451572.973425356</v>
       </c>
     </row>
     <row r="3">
@@ -26372,40 +26372,40 @@
         <v>4753.489354326401</v>
       </c>
       <c r="E3" t="n">
-        <v>1138215.849596719</v>
+        <v>1138215.849596721</v>
       </c>
       <c r="F3" t="n">
-        <v>23360.76320971704</v>
+        <v>23360.76320971407</v>
       </c>
       <c r="G3" t="n">
-        <v>18563.25327422447</v>
+        <v>18563.25327422252</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26965.44358034024</v>
+        <v>26965.44358034293</v>
       </c>
       <c r="J3" t="n">
-        <v>19793.55905756362</v>
+        <v>19793.55905756568</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22881.81875075772</v>
+        <v>22881.81875075561</v>
       </c>
       <c r="M3" t="n">
         <v>202335.5569689579</v>
       </c>
       <c r="N3" t="n">
-        <v>19969.15341248742</v>
+        <v>19969.15341248484</v>
       </c>
       <c r="O3" t="n">
-        <v>14698.29054411634</v>
+        <v>14698.29054411839</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>413719.6142666658</v>
       </c>
       <c r="E4" t="n">
-        <v>32572.26833574804</v>
+        <v>32572.26833575068</v>
       </c>
       <c r="F4" t="n">
-        <v>40962.42588769365</v>
+        <v>40962.42588769522</v>
       </c>
       <c r="G4" t="n">
-        <v>64165.93910549494</v>
+        <v>64165.93910549383</v>
       </c>
       <c r="H4" t="n">
-        <v>64165.93910549492</v>
+        <v>64165.93910549389</v>
       </c>
       <c r="I4" t="n">
-        <v>74601.16991356862</v>
+        <v>74601.16991356864</v>
       </c>
       <c r="J4" t="n">
+        <v>71395.31844273598</v>
+      </c>
+      <c r="K4" t="n">
         <v>71395.31844273597</v>
       </c>
-      <c r="K4" t="n">
-        <v>71395.31844273594</v>
-      </c>
       <c r="L4" t="n">
-        <v>74294.95759839081</v>
+        <v>74294.95759839079</v>
       </c>
       <c r="M4" t="n">
         <v>74601.16991356862</v>
       </c>
       <c r="N4" t="n">
-        <v>74601.16991356859</v>
+        <v>74601.16991356858</v>
       </c>
       <c r="O4" t="n">
-        <v>74601.16991356859</v>
+        <v>74601.16991356856</v>
       </c>
       <c r="P4" t="n">
-        <v>74601.16991356859</v>
+        <v>74601.16991356861</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>76304.75064739329</v>
+        <v>76304.75064739351</v>
       </c>
       <c r="F5" t="n">
-        <v>81261.83797332807</v>
+        <v>81261.83797332768</v>
       </c>
       <c r="G5" t="n">
-        <v>83212.58064771655</v>
+        <v>83212.58064771593</v>
       </c>
       <c r="H5" t="n">
-        <v>83212.58064771655</v>
+        <v>83212.58064771592</v>
       </c>
       <c r="I5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>90108.14210422119</v>
+        <v>90108.14210422117</v>
       </c>
       <c r="K5" t="n">
         <v>90108.14210422117</v>
@@ -26500,13 +26500,13 @@
         <v>89631.5575146093</v>
       </c>
       <c r="M5" t="n">
+        <v>89377.9416748061</v>
+      </c>
+      <c r="N5" t="n">
+        <v>89377.9416748061</v>
+      </c>
+      <c r="O5" t="n">
         <v>89377.94167480612</v>
-      </c>
-      <c r="N5" t="n">
-        <v>89377.94167480612</v>
-      </c>
-      <c r="O5" t="n">
-        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2201.987681412349</v>
+        <v>2197.57410354412</v>
       </c>
       <c r="C6" t="n">
-        <v>2201.987681412116</v>
+        <v>2197.57410354412</v>
       </c>
       <c r="D6" t="n">
-        <v>-1458.13663655657</v>
+        <v>-1458.136636556512</v>
       </c>
       <c r="E6" t="n">
-        <v>-848904.8765191147</v>
+        <v>-849147.5355253199</v>
       </c>
       <c r="F6" t="n">
-        <v>266455.205048702</v>
+        <v>266275.5107700414</v>
       </c>
       <c r="G6" t="n">
-        <v>268402.5224706731</v>
+        <v>268324.2102982785</v>
       </c>
       <c r="H6" t="n">
-        <v>286965.7757448977</v>
+        <v>286887.4635725009</v>
       </c>
       <c r="I6" t="n">
-        <v>260628.4182566413</v>
+        <v>260628.4182566385</v>
       </c>
       <c r="J6" t="n">
-        <v>268577.1458999217</v>
+        <v>268569.4240457334</v>
       </c>
       <c r="K6" t="n">
-        <v>288370.7049574854</v>
+        <v>288362.9831032992</v>
       </c>
       <c r="L6" t="n">
-        <v>264764.6395615982</v>
+        <v>264764.6395616003</v>
       </c>
       <c r="M6" t="n">
-        <v>85258.30486802361</v>
+        <v>85258.30486802348</v>
       </c>
       <c r="N6" t="n">
-        <v>267624.7084244941</v>
+        <v>267624.7084244965</v>
       </c>
       <c r="O6" t="n">
-        <v>272895.5712928651</v>
+        <v>272895.5712928632</v>
       </c>
       <c r="P6" t="n">
-        <v>287593.8618369816</v>
+        <v>287593.8618369813</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="F2" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>46.97513661859258</v>
@@ -26707,13 +26707,13 @@
         <v>46.97513661859258</v>
       </c>
       <c r="J2" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="K2" t="n">
         <v>41.576929772926</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>46.97513661859259</v>
@@ -26722,7 +26722,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859256</v>
@@ -26796,16 +26796,16 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>912.932496947273</v>
+        <v>912.9324969472627</v>
       </c>
       <c r="G4" t="n">
-        <v>912.9324969472729</v>
+        <v>912.9324969472627</v>
       </c>
       <c r="H4" t="n">
-        <v>912.9324969472729</v>
+        <v>912.9324969472627</v>
       </c>
       <c r="I4" t="n">
         <v>1014.336461208615</v>
@@ -26823,10 +26823,10 @@
         <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="O4" t="n">
         <v>1014.336461208615</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
         <v>1014.336461208615</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>23.20406659278059</v>
+        <v>23.20406659277793</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18.37286318014542</v>
+        <v>18.37286318014806</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.60227343844716</v>
+        <v>28.60227343844452</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.37286318014542</v>
+        <v>18.37286318014799</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>816.0987178871576</v>
+        <v>816.0987178871578</v>
       </c>
       <c r="F4" t="n">
-        <v>81.53104154498033</v>
+        <v>81.53104154496987</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>101.4039642613417</v>
+        <v>101.4039642613518</v>
       </c>
       <c r="J4" t="n">
-        <v>19.47405066979286</v>
+        <v>19.47405066979263</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>811.9274047324998</v>
+        <v>811.9274047325</v>
       </c>
       <c r="N4" t="n">
-        <v>81.53104154498055</v>
+        <v>81.53104154496998</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>23.20406659278059</v>
+        <v>23.20406659277793</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.37286318014542</v>
+        <v>18.37286318014806</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M4" t="n">
-        <v>816.0987178871576</v>
+        <v>816.0987178871578</v>
       </c>
       <c r="N4" t="n">
-        <v>81.53104154498033</v>
+        <v>81.53104154496987</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>366.6276325571267</v>
       </c>
       <c r="F8" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>195.1731520552709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27898,10 +27898,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>134.5663804260146</v>
       </c>
       <c r="S8" t="n">
-        <v>195.5414183829144</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>342.6383632557935</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,16 +27929,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>151.2304461347323</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>132.1423280495037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>142.3423429402659</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>186.6860774914907</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>193.0409253264044</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>151.9440835834928</v>
+        <v>156.4896106304034</v>
       </c>
       <c r="D10" t="n">
-        <v>133.3127355030773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>82.60196964844833</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>70.85930573655934</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>203.2819158369597</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="C11" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="D11" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="E11" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="F11" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="G11" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="H11" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="I11" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="T11" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="U11" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="V11" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="W11" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="X11" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="Y11" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="C13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="D13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="E13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="F13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="G13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="H13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="I13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="J13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="K13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="L13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="M13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="N13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="O13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="P13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="R13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="S13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="T13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="U13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="V13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="W13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="X13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
       <c r="Y13" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581461</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="C14" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="D14" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="E14" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="F14" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="G14" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="H14" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="I14" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="T14" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="U14" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="V14" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="W14" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="X14" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="Y14" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="C16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="D16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="E16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="F16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="G16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="H16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="I16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="J16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="K16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="L16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="M16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="N16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="O16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="P16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="R16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="S16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="T16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="U16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="V16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="W16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="X16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
       <c r="Y16" t="n">
-        <v>23.77107002581199</v>
+        <v>23.77107002581464</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="20">
@@ -28989,7 +28989,7 @@
         <v>46.97513661859258</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859193</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N22" t="n">
         <v>46.97513661859258</v>
@@ -29232,13 +29232,13 @@
         <v>46.97513661859258</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859216</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P25" t="n">
         <v>46.97513661859258</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859213</v>
       </c>
       <c r="R25" t="n">
         <v>46.97513661859258</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="C26" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="D26" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="E26" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="F26" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="G26" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="H26" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="I26" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="T26" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="U26" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="V26" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="W26" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="X26" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="Y26" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="C28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="D28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="E28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="F28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="G28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="H28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="I28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="J28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="K28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="L28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="M28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="N28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="O28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="P28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="R28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="S28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="T28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="U28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="V28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="W28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="X28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="Y28" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292604</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>30.7871045279972</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>30.78710452799646</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859398</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="44">
@@ -30897,7 +30897,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859306</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
         <v>46.97513661859256</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33266,7 +33266,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138803</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233474</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="N8" t="n">
-        <v>14.68444509028111</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M9" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35340,10 +35340,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="N10" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="O10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="O10" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>69.34948663887819</v>
+        <v>69.34948663888086</v>
       </c>
       <c r="K13" t="n">
-        <v>229.8187295701315</v>
+        <v>229.8187295701342</v>
       </c>
       <c r="L13" t="n">
-        <v>343.5284421960101</v>
+        <v>343.5284421960128</v>
       </c>
       <c r="M13" t="n">
-        <v>371.4044494192958</v>
+        <v>371.4044494192984</v>
       </c>
       <c r="N13" t="n">
-        <v>368.628016193352</v>
+        <v>368.6280161933547</v>
       </c>
       <c r="O13" t="n">
-        <v>326.1242002484517</v>
+        <v>326.1242002484544</v>
       </c>
       <c r="P13" t="n">
-        <v>258.7281411709224</v>
+        <v>258.728141170925</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.1653085637056</v>
+        <v>102.1653085637083</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>649.4361078534354</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.8255793153921</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.34948663887819</v>
+        <v>69.34948663888086</v>
       </c>
       <c r="K16" t="n">
-        <v>229.8187295701315</v>
+        <v>229.8187295701342</v>
       </c>
       <c r="L16" t="n">
-        <v>343.5284421960101</v>
+        <v>343.5284421960127</v>
       </c>
       <c r="M16" t="n">
-        <v>371.4044494192958</v>
+        <v>371.4044494192985</v>
       </c>
       <c r="N16" t="n">
-        <v>368.628016193352</v>
+        <v>368.6280161933547</v>
       </c>
       <c r="O16" t="n">
-        <v>326.1242002484517</v>
+        <v>326.1242002484544</v>
       </c>
       <c r="P16" t="n">
-        <v>258.7281411709224</v>
+        <v>258.7281411709251</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.1653085637056</v>
+        <v>102.1653085637083</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>830.8829835713327</v>
       </c>
       <c r="P17" t="n">
-        <v>552.4953537304527</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887904</v>
       </c>
       <c r="M19" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O19" t="n">
         <v>349.3282668412323</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554004</v>
@@ -36127,7 +36127,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>861.7510985133414</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129113</v>
@@ -36139,7 +36139,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>404.5276723148007</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222472</v>
@@ -36285,7 +36285,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120757</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N22" t="n">
         <v>391.8320827861326</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302265</v>
@@ -36370,13 +36370,13 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>749.0240763241632</v>
       </c>
       <c r="P23" t="n">
-        <v>675.9826703737872</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36528,13 +36528,13 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412319</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
@@ -36601,19 +36601,19 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>838.5299642555508</v>
       </c>
       <c r="O26" t="n">
-        <v>540.5843492202308</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.1553463859922</v>
+        <v>87.15534638599223</v>
       </c>
       <c r="K28" t="n">
-        <v>247.6245893172455</v>
+        <v>247.6245893172456</v>
       </c>
       <c r="L28" t="n">
         <v>361.3343019431241</v>
@@ -36762,16 +36762,16 @@
         <v>389.2103091664098</v>
       </c>
       <c r="N28" t="n">
-        <v>386.433875940466</v>
+        <v>386.4338759404661</v>
       </c>
       <c r="O28" t="n">
-        <v>343.9300599955657</v>
+        <v>343.9300599955658</v>
       </c>
       <c r="P28" t="n">
         <v>276.5340009180364</v>
       </c>
       <c r="Q28" t="n">
-        <v>119.9711683108196</v>
+        <v>119.9711683108197</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>867.1863641566395</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302265</v>
@@ -36847,13 +36847,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>406.3082662695265</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340061</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013291</v>
@@ -36999,7 +36999,7 @@
         <v>389.2103091664098</v>
       </c>
       <c r="N31" t="n">
-        <v>386.4338759404661</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O31" t="n">
         <v>343.9300599955657</v>
@@ -37069,28 +37069,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>620.9549486073622</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>603.1670075610705</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554004</v>
@@ -37318,16 +37318,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>418.5312714465568</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>81.36301896737255</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>676.8754799667412</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>675.9826703737876</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>827.137011779455</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>526.8446923444531</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222472</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165868</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M43" t="n">
         <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412337</v>
       </c>
       <c r="P43" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>733.422223115981</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>290.8164461252068</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38178,7 +38178,7 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120763</v>
@@ -38193,7 +38193,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564867</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
